--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB09D4-CD37-46B4-A10B-2F5AFFE192F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8BC99-6F36-484F-B0DA-44DCCACB8266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD8BC99-6F36-484F-B0DA-44DCCACB8266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6BBBA6-5D99-453B-950A-42766827C1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6BBBA6-5D99-453B-950A-42766827C1CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA534A09-C0D1-454B-BBD1-9C512190868F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA534A09-C0D1-454B-BBD1-9C512190868F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89478F01-02BD-427B-A1A2-649D268F3B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89478F01-02BD-427B-A1A2-649D268F3B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B611A01-F2C7-4325-B0EF-0D95C53EA259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B611A01-F2C7-4325-B0EF-0D95C53EA259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E3E6AA-C4C1-4477-88D7-5E9F85FC2A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E3E6AA-C4C1-4477-88D7-5E9F85FC2A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B134DE-A668-417E-BECC-D54655A703F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
+++ b/CVX_Kenya/sens_Productivity increase due to 100% new machines (not spoiling the cerry)/case_0.01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\sens_Productivity increase due to 100% new machines (not spoiling the cerry)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B134DE-A668-417E-BECC-D54655A703F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C99DC4-6CEB-4849-B7C0-5FF597D8AF94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
